--- a/Documentation/C-ExamPlus_Database.xlsx
+++ b/Documentation/C-ExamPlus_Database.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pritam\Downloads\ourProject\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cppad\Desktop\Project\C-ExamPlus\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37580580-7BD1-4A68-8BFC-58753AE36FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
   <si>
     <t xml:space="preserve">User_ID </t>
   </si>
@@ -391,12 +385,39 @@
   </si>
   <si>
     <t>C-ExamPlus</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Deactive</t>
+  </si>
+  <si>
+    <t>Exam_Date</t>
+  </si>
+  <si>
+    <t>No_of_Questions</t>
+  </si>
+  <si>
+    <t>Actual_time</t>
+  </si>
+  <si>
+    <t>Login_Time</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>45 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -859,11 +880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +894,7 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
@@ -1385,7 +1406,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C33" s="3">
         <v>1102</v>
       </c>
@@ -1399,7 +1420,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C34" s="3">
         <v>1103</v>
       </c>
@@ -1413,7 +1434,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C35" s="3">
         <v>1104</v>
       </c>
@@ -1427,7 +1448,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="3">
         <v>1105</v>
       </c>
@@ -1441,7 +1462,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1451,7 +1472,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1461,7 +1482,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1471,7 +1492,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>24</v>
       </c>
@@ -1484,13 +1505,26 @@
       <c r="E40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C41" s="3">
         <v>1</v>
       </c>
@@ -1500,13 +1534,26 @@
       <c r="E41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="6">
+        <v>44642</v>
+      </c>
+      <c r="G41" s="3">
+        <v>25</v>
+      </c>
+      <c r="H41" s="3">
+        <v>50</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C42" s="3">
         <v>2</v>
       </c>
@@ -1516,13 +1563,26 @@
       <c r="E42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F42" s="6">
+        <v>44612</v>
+      </c>
+      <c r="G42" s="3">
+        <v>25</v>
+      </c>
+      <c r="H42" s="3">
+        <v>50</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C43" s="3">
         <v>3</v>
       </c>
@@ -1532,13 +1592,26 @@
       <c r="E43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="6">
+        <v>44611</v>
+      </c>
+      <c r="G43" s="3">
+        <v>25</v>
+      </c>
+      <c r="H43" s="3">
+        <v>50</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C44" s="3">
         <v>4</v>
       </c>
@@ -1548,13 +1621,26 @@
       <c r="E44" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="6">
+        <v>44645</v>
+      </c>
+      <c r="G44" s="3">
+        <v>25</v>
+      </c>
+      <c r="H44" s="3">
+        <v>50</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <v>5</v>
       </c>
@@ -1564,13 +1650,26 @@
       <c r="E45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="6">
+        <v>44540</v>
+      </c>
+      <c r="G45" s="3">
+        <v>25</v>
+      </c>
+      <c r="H45" s="3">
+        <v>50</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1581,7 +1680,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1592,7 +1691,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1978,27 +2077,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="I14" r:id="rId2"/>
-    <hyperlink ref="I15" r:id="rId3"/>
-    <hyperlink ref="I16" r:id="rId4"/>
-    <hyperlink ref="I17" r:id="rId5"/>
-    <hyperlink ref="I18" r:id="rId6"/>
-    <hyperlink ref="J14" r:id="rId7"/>
-    <hyperlink ref="J15" r:id="rId8"/>
-    <hyperlink ref="J16" r:id="rId9"/>
-    <hyperlink ref="J17" r:id="rId10"/>
-    <hyperlink ref="J18" r:id="rId11"/>
-    <hyperlink ref="I23" r:id="rId12"/>
-    <hyperlink ref="I24" r:id="rId13"/>
-    <hyperlink ref="I25" r:id="rId14"/>
-    <hyperlink ref="I26" r:id="rId15"/>
-    <hyperlink ref="I27" r:id="rId16"/>
-    <hyperlink ref="J23" r:id="rId17"/>
-    <hyperlink ref="J24" r:id="rId18"/>
-    <hyperlink ref="J25" r:id="rId19"/>
-    <hyperlink ref="J26" r:id="rId20"/>
-    <hyperlink ref="J27" r:id="rId21"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I23" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I26" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I27" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J26" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>
